--- a/Sample_Bank_Data/DEC 2023.xlsx
+++ b/Sample_Bank_Data/DEC 2023.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\OneDrive_2025-04-23\Sample Bank Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{1A3AA0CD-3441-4638-A5D3-15B5B08B6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3534F7A-74D4-43EF-873A-D192DD72A6DD}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{1A3AA0CD-3441-4638-A5D3-15B5B08B6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A762258-9344-40C1-A079-B4D2C97ED828}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="12" r:id="rId1"/>
     <sheet name="CUSTOMER" sheetId="6" r:id="rId2"/>
     <sheet name="fact risk" sheetId="1" r:id="rId3"/>
     <sheet name="Risk Limit" sheetId="13" r:id="rId4"/>
-    <sheet name="Fact writeen-off" sheetId="8" r:id="rId5"/>
-    <sheet name="fact restructred" sheetId="10" r:id="rId6"/>
-    <sheet name="rating" sheetId="5" r:id="rId7"/>
-    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId8"/>
-    <sheet name="STAGING" sheetId="7" r:id="rId9"/>
+    <sheet name="PD" sheetId="15" r:id="rId5"/>
+    <sheet name="Provision" sheetId="14" r:id="rId6"/>
+    <sheet name="Fact writeen-off" sheetId="8" r:id="rId7"/>
+    <sheet name="fact restructred" sheetId="10" r:id="rId8"/>
+    <sheet name="rating" sheetId="5" r:id="rId9"/>
+    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId10"/>
+    <sheet name="STAGING" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'fact risk'!$B$1:$AD$51</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="215">
   <si>
     <t>Types of Collaterals</t>
   </si>
@@ -373,6 +375,84 @@
     <t>Group limit</t>
   </si>
   <si>
+    <t>Moody's</t>
+  </si>
+  <si>
+    <t>Internal Rating</t>
+  </si>
+  <si>
+    <t>PD 2023</t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t>Aa1</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Aa3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Caa1</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>Caa3</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Provision Stages</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -535,24 +615,12 @@
     <t>A</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>AA-</t>
   </si>
   <si>
-    <t>Aa3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>A+</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>BBB</t>
   </si>
   <si>
@@ -577,163 +645,43 @@
     <t>S&amp;P</t>
   </si>
   <si>
-    <t>Moody's</t>
-  </si>
-  <si>
     <t>Fitch</t>
   </si>
   <si>
     <t>Scale 21</t>
   </si>
   <si>
-    <t>Internal Rating</t>
-  </si>
-  <si>
-    <t>PD 2023</t>
-  </si>
-  <si>
     <t>AAA</t>
   </si>
   <si>
-    <t>Aaa</t>
-  </si>
-  <si>
-    <t>0.0020%</t>
-  </si>
-  <si>
     <t>AA+</t>
   </si>
   <si>
-    <t>Aa1</t>
-  </si>
-  <si>
-    <t>0.0232%</t>
-  </si>
-  <si>
-    <t>Aa2</t>
-  </si>
-  <si>
-    <t>0.0518%</t>
-  </si>
-  <si>
-    <t>0.1112%</t>
-  </si>
-  <si>
-    <t>0.2080%</t>
-  </si>
-  <si>
-    <t>0.3796%</t>
-  </si>
-  <si>
-    <t>0.5940%</t>
-  </si>
-  <si>
-    <t>Baa1</t>
-  </si>
-  <si>
-    <t>0.9130%</t>
-  </si>
-  <si>
-    <t>Baa2</t>
-  </si>
-  <si>
-    <t>1.3200%</t>
-  </si>
-  <si>
     <t>BBB-</t>
   </si>
   <si>
-    <t>Baa3</t>
-  </si>
-  <si>
-    <t>2.6180%</t>
-  </si>
-  <si>
-    <t>Ba1</t>
-  </si>
-  <si>
-    <t>4.6200%</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
-    <t>Ba2</t>
-  </si>
-  <si>
-    <t>7.4800%</t>
-  </si>
-  <si>
     <t>BB-</t>
   </si>
   <si>
-    <t>Ba3</t>
-  </si>
-  <si>
-    <t>10.7690%</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>15.2350%</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>19.9420%</t>
-  </si>
-  <si>
     <t>B-</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>26.4440%</t>
-  </si>
-  <si>
     <t>CCC+</t>
   </si>
   <si>
-    <t>Caa1</t>
-  </si>
-  <si>
-    <t>35.7268%</t>
-  </si>
-  <si>
     <t>CCC</t>
   </si>
   <si>
-    <t>Caa2</t>
-  </si>
-  <si>
-    <t>48.2680%</t>
-  </si>
-  <si>
     <t>CCC-</t>
   </si>
   <si>
-    <t>Caa3</t>
-  </si>
-  <si>
-    <t>72.8662%</t>
-  </si>
-  <si>
     <t>CC</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>100.0000%</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>SD</t>
@@ -1313,6 +1261,434 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="H1:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAC753-FD4B-4174-9852-2B0C91699448}">
   <dimension ref="B1:F51"/>
@@ -7664,8 +8040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757FC1B5-04C1-4D26-8275-A5FD6854AF7E}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7716,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>540000000</v>
+        <v>6980000000</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7736,7 +8112,7 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <v>520000000</v>
+        <v>6980000000</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7756,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>780000000</v>
+        <v>6980000000</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7776,7 +8152,7 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>1180000000</v>
+        <v>6980000000</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7796,7 +8172,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>350000000</v>
+        <v>6980000000</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7913,6 +8289,312 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF760C0-09E7-4904-A16D-1BF346764980}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10.769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15.234999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19.942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>26.443999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.726799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>48.268000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>72.866200000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC25F152-9DB7-49A5-9260-ACA81E64B101}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0525FA23-3CAD-4855-B532-1A977B48E93A}">
   <dimension ref="B2:G39"/>
   <sheetViews>
@@ -7930,27 +8612,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="13" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="15" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C3" s="16">
         <v>40426848</v>
@@ -7959,20 +8641,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8099322.6000000006</v>
+        <v>8089553.6000000006</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32327525.399999999</v>
+        <v>32337294.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C4" s="16">
         <v>53896550.399999999</v>
@@ -7981,20 +8663,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>10779366.08</v>
+        <v>10799339.08</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43117184.32</v>
+        <v>43097211.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30">
       <c r="B5" s="15" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C5" s="16">
         <v>67366252.799999997</v>
@@ -8003,20 +8685,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13491014.560000001</v>
+        <v>13496411.560000001</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>53875238.239999995</v>
+        <v>53869841.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="15" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C6" s="16">
         <v>94305657.600000009</v>
@@ -8025,20 +8707,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18872478.520000003</v>
+        <v>18879264.520000003</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75433179.080000013</v>
+        <v>75426393.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30">
       <c r="B7" s="15" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C7" s="16">
         <v>107760576</v>
@@ -8047,20 +8729,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21566855.200000003</v>
+        <v>21557679.200000003</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>86193720.799999997</v>
+        <v>86202896.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="15" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C8" s="16">
         <v>121082438.39999999</v>
@@ -8069,20 +8751,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>24236707.68</v>
+        <v>24236892.68</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>96845730.719999999</v>
+        <v>96845545.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="15" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C9" s="16">
         <v>146543443.19999999</v>
@@ -8091,20 +8773,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29332984.640000001</v>
+        <v>29333307.640000001</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117210458.55999999</v>
+        <v>117210135.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="15" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C10" s="16">
         <v>16608345.6</v>
@@ -8113,20 +8795,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3336649.12</v>
+        <v>3323362.12</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>13271696.48</v>
+        <v>13284983.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="15" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C11" s="16">
         <v>33034848</v>
@@ -8135,20 +8817,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6611644.6000000006</v>
+        <v>6624480.6000000006</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>26423203.399999999</v>
+        <v>26410367.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30">
       <c r="B12" s="15" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C12" s="16">
         <v>49461350.399999999</v>
@@ -8157,20 +8839,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9901057.0800000001</v>
+        <v>9896187.0800000001</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>39560293.32</v>
+        <v>39565163.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="15" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C13" s="16">
         <v>65887852.800000004</v>
@@ -8179,20 +8861,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13185422.560000002</v>
+        <v>13200573.560000002</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>52702430.240000002</v>
+        <v>52687279.240000002</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="15" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C14" s="16">
         <v>82314355.199999988</v>
@@ -8201,20 +8883,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16483322.039999999</v>
+        <v>16481137.039999999</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>65831033.159999989</v>
+        <v>65833218.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="15" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C15" s="16">
         <v>98740857.600000009</v>
@@ -8223,20 +8905,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19764374.520000003</v>
+        <v>19755388.520000003</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>78976483.080000013</v>
+        <v>78985469.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30">
       <c r="B16" s="15" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C16" s="16">
         <v>115152576</v>
@@ -8245,20 +8927,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23042985.200000003</v>
+        <v>23051659.200000003</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>92109590.799999997</v>
+        <v>92100916.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="15" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C17" s="16">
         <v>131431238.39999999</v>
@@ -8267,20 +8949,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26292901.68</v>
+        <v>26289091.68</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>105138336.72</v>
+        <v>105142146.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C18" s="16">
         <v>146379340.79999998</v>
@@ -8289,20 +8971,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29294245.159999996</v>
+        <v>29290836.159999996</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117085095.63999999</v>
+        <v>117088504.63999999</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="15" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C19" s="16">
         <v>14965843.200000001</v>
@@ -8311,20 +8993,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2994547.6400000006</v>
+        <v>3001545.6400000006</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>11971295.560000001</v>
+        <v>11964297.560000001</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="15" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C20" s="16">
         <v>31392345.599999998</v>
@@ -8333,20 +9015,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6295955.1200000001</v>
+        <v>6292496.1200000001</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>25096390.479999997</v>
+        <v>25099849.479999997</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="15" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C21" s="16">
         <v>47818848</v>
@@ -8355,20 +9037,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9569558.5999999996</v>
+        <v>9582293.5999999996</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>38249289.399999999</v>
+        <v>38236554.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30">
       <c r="B22" s="15" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C22" s="16">
         <v>64245350.399999999</v>
@@ -8377,20 +9059,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12868431.08</v>
+        <v>12873084.08</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>51376919.32</v>
+        <v>51372266.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="15" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C23" s="16">
         <v>80671852.799999997</v>
@@ -8399,20 +9081,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16151977.560000001</v>
+        <v>16150362.560000001</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64519875.239999995</v>
+        <v>64521490.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30">
       <c r="B24" s="15" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C24" s="16">
         <v>97098355.199999988</v>
@@ -8421,20 +9103,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19439339.039999999</v>
+        <v>19433146.039999999</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>77659016.159999996</v>
+        <v>77665209.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="15" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C25" s="16">
         <v>113524857.60000001</v>
@@ -8443,20 +9125,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22707380.520000003</v>
+        <v>22722828.520000003</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>90817477.080000013</v>
+        <v>90802029.080000013</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="15" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C26" s="16">
         <v>129936576</v>
@@ -8465,20 +9147,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26002481.200000003</v>
+        <v>25991145.200000003</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>103934094.8</v>
+        <v>103945430.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30">
       <c r="B27" s="15" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C27" s="16">
         <v>146215238.40000001</v>
@@ -8487,20 +9169,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29249224.680000003</v>
+        <v>29245619.680000003</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>116966013.72</v>
+        <v>116969618.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="15" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C28" s="16">
         <v>28107340.799999997</v>
@@ -8509,20 +9191,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5629505.1600000001</v>
+        <v>5638128.1600000001</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>22477835.639999997</v>
+        <v>22469212.639999997</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="15" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C29" s="16">
         <v>44533843.199999996</v>
@@ -8531,20 +9213,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F29" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8916594.6399999987</v>
+        <v>8913205.6399999987</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>35617248.559999995</v>
+        <v>35620637.559999995</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30">
       <c r="B30" s="15" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C30" s="16">
         <v>60960345.599999994</v>
@@ -8553,20 +9235,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12192209.119999999</v>
+        <v>12215747.119999999</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48768136.479999997</v>
+        <v>48744598.479999997</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="15" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C31" s="16">
         <v>77386848</v>
@@ -8575,20 +9257,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>15501082.600000001</v>
+        <v>15488128.600000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>61885765.399999999</v>
+        <v>61898719.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="15" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C32" s="16">
         <v>93813350.399999991</v>
@@ -8597,20 +9279,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18773903.079999998</v>
+        <v>18766613.079999998</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75039447.319999993</v>
+        <v>75046737.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30">
       <c r="B33" s="15" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C33" s="16">
         <v>110239852.8</v>
@@ -8619,20 +9301,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22069239.560000002</v>
+        <v>22070138.560000002</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>88170613.239999995</v>
+        <v>88169714.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="15" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C34" s="16">
         <v>126666355.19999999</v>
@@ -8641,20 +9323,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25345148.039999999</v>
+        <v>25339202.039999999</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>101321207.16</v>
+        <v>101327153.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="15" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C35" s="16">
         <v>143092857.59999999</v>
@@ -8663,20 +9345,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28622205.52</v>
+        <v>28630387.52</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>114470652.08</v>
+        <v>114462470.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30">
       <c r="B36" s="15" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C36" s="16">
         <v>26448576</v>
@@ -8685,20 +9367,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5303392.2</v>
+        <v>5309264.2</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21145183.800000001</v>
+        <v>21139311.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="15" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C37" s="16">
         <v>42727238.399999999</v>
@@ -8707,20 +9389,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8569910.6799999997</v>
+        <v>8548446.6799999997</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>34157327.719999999</v>
+        <v>34178791.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="15" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C38" s="16">
         <v>57675340.800000004</v>
@@ -8729,20 +9411,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F38" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>11552730.160000002</v>
+        <v>11557456.160000002</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>46122610.640000001</v>
+        <v>46117884.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="15" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C39" s="16">
         <v>74101843.200000003</v>
@@ -8751,15 +9433,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F39" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>14832099.640000001</v>
+        <v>14836641.640000001</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>59269743.560000002</v>
+        <v>59265201.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -8767,7 +9449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67618C1-C8A0-47B6-8B25-F487EA031E1F}">
   <dimension ref="B2:F41"/>
   <sheetViews>
@@ -8795,10 +9477,10 @@
         <v>75</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -8853,7 +9535,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="19" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C40" s="19">
         <v>6</v>
@@ -8871,7 +9553,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="19" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C41" s="19">
         <v>7</v>
@@ -8892,7 +9574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63958FAE-3AAE-44C0-9CCD-F6FFBDEF2641}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -8927,13 +9609,13 @@
         <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8941,7 +9623,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -8953,10 +9635,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8978,10 +9660,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9002,10 +9684,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9026,10 +9708,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9050,10 +9732,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9075,10 +9757,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9100,10 +9782,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9125,10 +9807,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9150,10 +9832,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9175,10 +9857,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9200,7 +9882,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9222,10 +9904,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9247,7 +9929,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9270,7 +9952,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9292,7 +9974,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9314,10 +9996,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9339,7 +10021,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9361,7 +10043,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9383,7 +10065,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9406,7 +10088,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9428,7 +10110,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9450,7 +10132,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9472,7 +10154,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9494,7 +10176,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9516,7 +10198,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9538,7 +10220,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9560,10 +10242,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9585,10 +10267,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H29" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9610,7 +10292,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9632,7 +10314,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9655,7 +10337,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9677,10 +10359,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H33" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9702,10 +10384,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H34" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9727,10 +10409,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H35" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9752,10 +10434,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H36" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9777,7 +10459,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -9799,7 +10481,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9821,7 +10503,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9843,10 +10525,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -9868,10 +10550,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9893,7 +10575,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9915,7 +10597,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9937,7 +10619,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9959,7 +10641,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9981,7 +10663,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -10003,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -10025,7 +10707,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -10047,7 +10729,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -10069,7 +10751,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -10091,567 +10773,10 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>195</v>
-      </c>
-      <c r="I10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>208</v>
-      </c>
-      <c r="I15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>211</v>
-      </c>
-      <c r="I16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>217</v>
-      </c>
-      <c r="I18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>220</v>
-      </c>
-      <c r="I19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>223</v>
-      </c>
-      <c r="I20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>226</v>
-      </c>
-      <c r="I21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>228</v>
-      </c>
-      <c r="I22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Sample_Bank_Data/DEC 2023.xlsx
+++ b/Sample_Bank_Data/DEC 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10069845-3A5C-480E-8C34-E2AA3819CE48}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04D62B14-CD80-47A9-B943-23C34F291806}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="306">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -520,370 +520,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1707,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B3:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1954,13 +1699,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1968,7 +1713,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -1980,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2005,10 +1750,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2029,10 +1774,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2053,10 +1798,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H5" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2077,10 +1822,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="H6" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2102,10 +1847,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="H7" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2127,10 +1872,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H8" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2152,10 +1897,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H9" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2177,10 +1922,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H10" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2202,10 +1947,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="H11" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2227,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2249,10 +1994,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H13" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2274,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2297,7 +2042,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2319,7 +2064,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2341,10 +2086,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H17" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2366,7 +2111,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2388,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2410,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2433,7 +2178,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2455,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2477,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2499,7 +2244,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2521,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2543,7 +2288,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2565,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2587,10 +2332,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H28" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2612,10 +2357,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H29" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2637,7 +2382,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2659,7 +2404,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2682,7 +2427,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2704,10 +2449,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H33" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2729,10 +2474,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H34" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2754,10 +2499,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H35" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2779,10 +2524,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H36" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2804,7 +2549,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2826,7 +2571,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2848,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2870,10 +2615,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H40" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2895,10 +2640,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H41" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2920,7 +2665,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2942,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2964,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2986,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3008,7 +2753,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3030,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3052,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3074,7 +2819,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3096,7 +2841,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3118,7 +2863,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3138,30 +2883,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -3172,13 +2917,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -3189,13 +2934,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -3206,13 +2951,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -3223,13 +2968,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -3240,13 +2985,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -3257,13 +3002,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3274,13 +3019,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -3291,13 +3036,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -3308,13 +3053,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -3325,13 +3070,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -3342,13 +3087,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -3359,13 +3104,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -3376,13 +3121,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -3393,13 +3138,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -3410,13 +3155,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -3427,13 +3172,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -3444,13 +3189,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3461,13 +3206,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3478,13 +3223,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3495,7 +3240,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3506,13 +3251,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3520,10 +3265,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="C24" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3531,7 +3276,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -9600,8 +9345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10467,7 +10212,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -10499,7 +10244,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -10531,7 +10276,7 @@
         <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -10563,7 +10308,7 @@
         <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -10595,7 +10340,7 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -10627,7 +10372,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -10659,7 +10404,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -10691,7 +10436,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -10723,7 +10468,7 @@
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -10755,7 +10500,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -10787,7 +10532,7 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -10819,7 +10564,7 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -10851,7 +10596,7 @@
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -10883,7 +10628,7 @@
         <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10915,7 +10660,7 @@
         <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10947,7 +10692,7 @@
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10979,7 +10724,7 @@
         <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -11011,7 +10756,7 @@
         <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -11043,7 +10788,7 @@
         <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -11075,7 +10820,7 @@
         <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -11107,7 +10852,7 @@
         <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -11139,7 +10884,7 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -11171,7 +10916,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -11203,7 +10948,7 @@
         <v>128</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -11235,7 +10980,7 @@
         <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -11267,7 +11012,7 @@
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -11299,7 +11044,7 @@
         <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -11331,7 +11076,7 @@
         <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -11363,7 +11108,7 @@
         <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -11395,7 +11140,7 @@
         <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -11427,7 +11172,7 @@
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -11459,7 +11204,7 @@
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -11491,7 +11236,7 @@
         <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -11523,7 +11268,7 @@
         <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -11555,7 +11300,7 @@
         <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -11587,7 +11332,7 @@
         <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -11619,7 +11364,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -11651,7 +11396,7 @@
         <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -11683,7 +11428,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -11715,7 +11460,7 @@
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -11747,7 +11492,7 @@
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -11779,7 +11524,7 @@
         <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -11811,7 +11556,7 @@
         <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -11843,7 +11588,7 @@
         <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -11875,7 +11620,7 @@
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11907,7 +11652,7 @@
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11939,7 +11684,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11971,7 +11716,7 @@
         <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -12003,7 +11748,7 @@
         <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -12035,7 +11780,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -12067,7 +11812,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -12099,7 +11844,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -12131,7 +11876,7 @@
         <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -12163,7 +11908,7 @@
         <v>128</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -12195,7 +11940,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -12227,7 +11972,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -12259,7 +12004,7 @@
         <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -12291,7 +12036,7 @@
         <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -12323,7 +12068,7 @@
         <v>128</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -12355,7 +12100,7 @@
         <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -12387,7 +12132,7 @@
         <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -12419,7 +12164,7 @@
         <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -12451,7 +12196,7 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -12483,7 +12228,7 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -12515,7 +12260,7 @@
         <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -12547,7 +12292,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -12579,7 +12324,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -12611,7 +12356,7 @@
         <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -12643,7 +12388,7 @@
         <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -12675,7 +12420,7 @@
         <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -12707,7 +12452,7 @@
         <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -12739,7 +12484,7 @@
         <v>140</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -12771,7 +12516,7 @@
         <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -12803,7 +12548,7 @@
         <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -12835,7 +12580,7 @@
         <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -12867,7 +12612,7 @@
         <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -12899,7 +12644,7 @@
         <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12931,7 +12676,7 @@
         <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12963,7 +12708,7 @@
         <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12995,7 +12740,7 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -13027,7 +12772,7 @@
         <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -13059,7 +12804,7 @@
         <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -13091,7 +12836,7 @@
         <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -13123,7 +12868,7 @@
         <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -13155,7 +12900,7 @@
         <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -13187,7 +12932,7 @@
         <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -13219,7 +12964,7 @@
         <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -13251,7 +12996,7 @@
         <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -13283,7 +13028,7 @@
         <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -13315,7 +13060,7 @@
         <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -13347,7 +13092,7 @@
         <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -13379,7 +13124,7 @@
         <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -13411,7 +13156,7 @@
         <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -13443,7 +13188,7 @@
         <v>125</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -13475,7 +13220,7 @@
         <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -13507,7 +13252,7 @@
         <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -13539,7 +13284,7 @@
         <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -13571,7 +13316,7 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -13603,7 +13348,7 @@
         <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -13635,7 +13380,7 @@
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -13667,7 +13412,7 @@
         <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -13699,7 +13444,7 @@
         <v>125</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -13731,7 +13476,7 @@
         <v>125</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -13763,7 +13508,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -13795,7 +13540,7 @@
         <v>133</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -13827,7 +13572,7 @@
         <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -13859,7 +13604,7 @@
         <v>140</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -13891,7 +13636,7 @@
         <v>128</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13923,7 +13668,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13955,7 +13700,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13987,7 +13732,7 @@
         <v>128</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -14019,7 +13764,7 @@
         <v>125</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -14051,7 +13796,7 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -14083,7 +13828,7 @@
         <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -14115,7 +13860,7 @@
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -14147,7 +13892,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -14179,7 +13924,7 @@
         <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -14211,7 +13956,7 @@
         <v>128</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -14243,7 +13988,7 @@
         <v>125</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -14275,7 +14020,7 @@
         <v>125</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -14307,7 +14052,7 @@
         <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -14339,7 +14084,7 @@
         <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -14371,22 +14116,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -14614,21 +14359,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14642,7 +14387,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -14656,7 +14401,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -14670,7 +14415,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -14684,7 +14429,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -14698,7 +14443,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -14712,7 +14457,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -14726,7 +14471,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -14740,7 +14485,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -14754,7 +14499,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -14768,7 +14513,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -14782,7 +14527,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -14796,7 +14541,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -14810,7 +14555,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -14824,7 +14569,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -14838,7 +14583,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -14852,7 +14597,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -14866,7 +14611,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -14880,7 +14625,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -14894,7 +14639,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -14908,7 +14653,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -14938,7 +14683,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -14968,7 +14713,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -14994,27 +14739,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="25" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="28" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C3" s="29">
         <v>40426848</v>
@@ -15023,20 +14768,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8096175.6000000006</v>
+        <v>8090201.6000000006</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32330672.399999999</v>
+        <v>32336646.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="28" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C4" s="29">
         <v>53896550.399999999</v>
@@ -15045,20 +14790,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10789730.08</v>
+        <v>10786617.08</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43106820.32</v>
+        <v>43109933.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="28" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C5" s="29">
         <v>67366252.799999997</v>
@@ -15067,20 +14812,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13480996.560000001</v>
+        <v>13478847.560000001</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53885256.239999995</v>
+        <v>53887405.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="28" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C6" s="29">
         <v>94305657.600000009</v>
@@ -15089,20 +14834,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18865776.520000003</v>
+        <v>18865067.520000003</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75439881.080000013</v>
+        <v>75440590.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="28" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C7" s="29">
         <v>107760576</v>
@@ -15111,20 +14856,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21558465.200000003</v>
+        <v>21552598.200000003</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86202110.799999997</v>
+        <v>86207977.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="28" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C8" s="29">
         <v>121082438.40000001</v>
@@ -15133,20 +14878,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24222202.680000003</v>
+        <v>24222117.680000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96860235.719999999</v>
+        <v>96860320.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="28" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C9" s="29">
         <v>146543443.19999999</v>
@@ -15155,20 +14900,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29318552.640000001</v>
+        <v>29331855.640000001</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117224890.55999999</v>
+        <v>117211587.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="28" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C10" s="29">
         <v>16608345.6</v>
@@ -15177,20 +14922,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3342514.12</v>
+        <v>3341451.12</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13265831.48</v>
+        <v>13266894.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="28" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C11" s="29">
         <v>33034848</v>
@@ -15199,20 +14944,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6609257.6000000006</v>
+        <v>6620116.6000000006</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26425590.399999999</v>
+        <v>26414731.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1">
       <c r="B12" s="28" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C12" s="29">
         <v>49461350.399999999</v>
@@ -15221,20 +14966,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9915055.0800000001</v>
+        <v>9904748.0800000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39546295.32</v>
+        <v>39556602.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="28" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="C13" s="29">
         <v>65887852.799999997</v>
@@ -15243,20 +14988,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13197750.560000001</v>
+        <v>13200331.560000001</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52690102.239999995</v>
+        <v>52687521.239999995</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="28" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="C14" s="29">
         <v>82314355.199999988</v>
@@ -15265,20 +15010,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16478097.039999999</v>
+        <v>16482651.039999999</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65836258.159999989</v>
+        <v>65831704.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="28" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="C15" s="29">
         <v>98740857.600000009</v>
@@ -15287,20 +15032,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19757388.520000003</v>
+        <v>19750436.520000003</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78983469.080000013</v>
+        <v>78990421.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1">
       <c r="B16" s="28" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="C16" s="29">
         <v>115152576</v>
@@ -15309,20 +15054,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23053120.200000003</v>
+        <v>23031978.200000003</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92099455.799999997</v>
+        <v>92120597.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="28" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="C17" s="29">
         <v>131431238.40000001</v>
@@ -15331,20 +15076,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26290858.680000003</v>
+        <v>26296954.680000003</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105140379.72</v>
+        <v>105134283.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="28" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="C18" s="29">
         <v>146379340.80000001</v>
@@ -15353,20 +15098,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29290610.160000004</v>
+        <v>29300521.160000004</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117088730.64000002</v>
+        <v>117078819.64000002</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="28" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="C19" s="29">
         <v>14965843.199999999</v>
@@ -15375,20 +15120,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3003947.64</v>
+        <v>2996663.64</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11961895.559999999</v>
+        <v>11969179.559999999</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="28" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="C20" s="29">
         <v>31392345.600000001</v>
@@ -15397,20 +15142,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6299844.120000001</v>
+        <v>6300337.120000001</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25092501.48</v>
+        <v>25092008.48</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="28" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="C21" s="29">
         <v>47818848</v>
@@ -15419,20 +15164,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9565156.5999999996</v>
+        <v>9583845.5999999996</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38253691.399999999</v>
+        <v>38235002.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="28" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="C22" s="29">
         <v>64245350.399999999</v>
@@ -15441,20 +15186,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12858933.08</v>
+        <v>12854325.08</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51386417.32</v>
+        <v>51391025.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="28" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="C23" s="29">
         <v>80671852.799999997</v>
@@ -15463,20 +15208,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16144825.560000001</v>
+        <v>16156295.560000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64527027.239999995</v>
+        <v>64515557.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="28" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C24" s="29">
         <v>97098355.199999988</v>
@@ -15485,20 +15230,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19441846.039999999</v>
+        <v>19421399.039999999</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77656509.159999996</v>
+        <v>77676956.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="28" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="C25" s="29">
         <v>113524857.59999999</v>
@@ -15507,20 +15252,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22728324.52</v>
+        <v>22713221.52</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90796533.079999998</v>
+        <v>90811636.079999998</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="28" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C26" s="29">
         <v>129936576</v>
@@ -15529,20 +15274,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26001536.200000003</v>
+        <v>26000479.200000003</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103935039.8</v>
+        <v>103936096.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="28" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="C27" s="29">
         <v>146215238.40000001</v>
@@ -15551,20 +15296,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29250041.680000003</v>
+        <v>29261018.680000003</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116965196.72</v>
+        <v>116954219.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="28" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="C28" s="29">
         <v>28107340.800000001</v>
@@ -15573,20 +15318,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5622229.1600000001</v>
+        <v>5627832.1600000001</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22485111.640000001</v>
+        <v>22479508.640000001</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="28" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="C29" s="29">
         <v>44533843.200000003</v>
@@ -15595,20 +15340,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8921913.6400000006</v>
+        <v>8916168.6400000006</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35611929.560000002</v>
+        <v>35617674.560000002</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="28" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="C30" s="29">
         <v>60960345.599999987</v>
@@ -15617,20 +15362,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12210974.119999997</v>
+        <v>12192781.119999997</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48749371.479999989</v>
+        <v>48767564.479999989</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="28" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="C31" s="29">
         <v>77386848</v>
@@ -15639,20 +15384,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15500296.600000001</v>
+        <v>15487434.600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61886551.399999999</v>
+        <v>61899413.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="28" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="C32" s="29">
         <v>93813350.399999991</v>
@@ -15661,20 +15406,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18771043.079999998</v>
+        <v>18764672.079999998</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75042307.319999993</v>
+        <v>75048678.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="28" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="C33" s="29">
         <v>110239852.8</v>
@@ -15683,20 +15428,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22064623.560000002</v>
+        <v>22071394.560000002</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88175229.239999995</v>
+        <v>88168458.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="28" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="C34" s="29">
         <v>126666355.2</v>
@@ -15705,20 +15450,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25341997.040000003</v>
+        <v>25348440.040000003</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101324358.16</v>
+        <v>101317915.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="28" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="C35" s="29">
         <v>143092857.59999999</v>
@@ -15727,20 +15472,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28643494.52</v>
+        <v>28638829.52</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114449363.08</v>
+        <v>114454028.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="28" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="C36" s="29">
         <v>26448576</v>
@@ -15749,20 +15494,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5307018.2</v>
+        <v>5308324.2</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21141557.800000001</v>
+        <v>21140251.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="28" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="C37" s="29">
         <v>42727238.399999999</v>
@@ -15771,20 +15516,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8566986.6799999997</v>
+        <v>8555717.6799999997</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34160251.719999999</v>
+        <v>34171520.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="28" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="C38" s="29">
         <v>57675340.799999997</v>
@@ -15793,20 +15538,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11535817.16</v>
+        <v>11549743.16</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46139523.640000001</v>
+        <v>46125597.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="28" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C39" s="29">
         <v>74101843.200000003</v>
@@ -15815,15 +15560,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14843093.640000001</v>
+        <v>14840388.640000001</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59258749.560000002</v>
+        <v>59261454.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -15859,10 +15604,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -15917,7 +15662,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="31" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="C40" s="31">
         <v>6</v>
@@ -15935,7 +15680,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="31" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C41" s="31">
         <v>7</v>

--- a/Sample_Bank_Data/DEC 2023.xlsx
+++ b/Sample_Bank_Data/DEC 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04D62B14-CD80-47A9-B943-23C34F291806}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63456AE4-EFEE-4ABA-8E00-FD272C189816}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="303">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1699,13 +1690,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1713,7 +1704,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -1725,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1750,10 +1741,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1774,10 +1765,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1798,10 +1789,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1822,10 +1813,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1847,10 +1838,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1872,10 +1863,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1897,10 +1888,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1922,10 +1913,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1947,10 +1938,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1972,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1994,10 +1985,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2019,7 +2010,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2042,7 +2033,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2064,7 +2055,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2086,10 +2077,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2111,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2133,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2155,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2178,7 +2169,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2200,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2222,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2244,7 +2235,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2266,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2288,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2310,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2332,10 +2323,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2357,10 +2348,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2382,7 +2373,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2404,7 +2395,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2427,7 +2418,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2449,10 +2440,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2474,10 +2465,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2499,10 +2490,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2524,10 +2515,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2549,7 +2540,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2571,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2593,7 +2584,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2615,10 +2606,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2640,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2665,7 +2656,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2687,7 +2678,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2709,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2731,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2753,7 +2744,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2775,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2797,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2819,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2841,7 +2832,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2863,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2883,30 +2874,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -2917,13 +2908,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -2934,13 +2925,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -2951,13 +2942,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2968,13 +2959,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -2985,13 +2976,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -3002,13 +2993,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3019,13 +3010,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -3036,13 +3027,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -3053,13 +3044,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -3070,13 +3061,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -3087,13 +3078,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -3104,13 +3095,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -3121,13 +3112,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -3138,13 +3129,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -3155,13 +3146,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -3172,13 +3163,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -3189,13 +3180,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3206,13 +3197,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3223,13 +3214,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3240,7 +3231,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3251,13 +3242,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3265,10 +3256,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3276,7 +3267,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -9345,8 +9336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9400,7 +9391,7 @@
         <v>6341624.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -9409,10 +9400,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -9432,7 +9423,7 @@
         <v>6341624.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -9441,10 +9432,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -9473,10 +9464,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -9496,7 +9487,7 @@
         <v>12477673.5</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -9505,10 +9496,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -9528,7 +9519,7 @@
         <v>12477673.5</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -9537,10 +9528,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -9560,7 +9551,7 @@
         <v>49389285</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -9569,10 +9560,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -9592,7 +9583,7 @@
         <v>49389285</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -9601,10 +9592,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -9633,10 +9624,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -9656,7 +9647,7 @@
         <v>49405622.5</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -9665,10 +9656,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -9688,7 +9679,7 @@
         <v>49405622.5</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -9697,10 +9688,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -9720,7 +9711,7 @@
         <v>11744737.5</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9729,10 +9720,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -9752,7 +9743,7 @@
         <v>11744737.5</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -9761,10 +9752,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -9784,7 +9775,7 @@
         <v>38283744</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -9793,10 +9784,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -9816,7 +9807,7 @@
         <v>38283744</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -9825,10 +9816,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -9857,10 +9848,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -9880,7 +9871,7 @@
         <v>28402008.5</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -9889,10 +9880,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9912,7 +9903,7 @@
         <v>28402008.5</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9921,10 +9912,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9944,7 +9935,7 @@
         <v>43833249</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9953,10 +9944,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9976,7 +9967,7 @@
         <v>43833249</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9985,10 +9976,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -10008,7 +9999,7 @@
         <v>27159930</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -10017,10 +10008,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -10040,7 +10031,7 @@
         <v>27159930</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -10049,10 +10040,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -10072,7 +10063,7 @@
         <v>11728047.5</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -10081,10 +10072,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -10104,7 +10095,7 @@
         <v>11728047.5</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -10113,10 +10104,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -10136,7 +10127,7 @@
         <v>33946121</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -10145,10 +10136,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -10168,7 +10159,7 @@
         <v>33946121</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -10177,10 +10168,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -10200,7 +10191,7 @@
         <v>16063572</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -10209,10 +10200,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -10232,7 +10223,7 @@
         <v>16063572</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -10241,10 +10232,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -10264,7 +10255,7 @@
         <v>38271676.5</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -10273,10 +10264,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -10296,7 +10287,7 @@
         <v>38271676.5</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -10305,10 +10296,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -10337,10 +10328,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -10360,7 +10351,7 @@
         <v>10548871</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -10369,10 +10360,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -10392,7 +10383,7 @@
         <v>10548871</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -10401,10 +10392,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -10424,7 +10415,7 @@
         <v>45073187.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -10433,10 +10424,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -10456,7 +10447,7 @@
         <v>45073187.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -10465,10 +10456,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -10497,10 +10488,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -10520,7 +10511,7 @@
         <v>49375271</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -10529,10 +10520,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -10552,7 +10543,7 @@
         <v>49375271</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -10561,10 +10552,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -10593,10 +10584,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -10616,7 +10607,7 @@
         <v>11738764.5</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -10625,10 +10616,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10648,7 +10639,7 @@
         <v>11738764.5</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -10657,10 +10648,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10680,7 +10671,7 @@
         <v>32719271</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -10689,10 +10680,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10712,7 +10703,7 @@
         <v>32719271</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10721,10 +10712,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10753,10 +10744,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10776,7 +10767,7 @@
         <v>39450152.5</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -10785,10 +10776,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10808,7 +10799,7 @@
         <v>39450152.5</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10817,10 +10808,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10849,10 +10840,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10872,7 +10863,7 @@
         <v>22847852.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -10881,10 +10872,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10904,7 +10895,7 @@
         <v>22847852.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10913,10 +10904,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10945,10 +10936,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10968,7 +10959,7 @@
         <v>6191094</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10977,10 +10968,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -11000,7 +10991,7 @@
         <v>6191094</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -11009,10 +11000,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -11041,10 +11032,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -11064,7 +11055,7 @@
         <v>6192720</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -11073,10 +11064,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -11096,7 +11087,7 @@
         <v>6192720</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -11105,10 +11096,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -11137,10 +11128,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -11160,7 +11151,7 @@
         <v>17275005</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -11169,10 +11160,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -11192,7 +11183,7 @@
         <v>17275005</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -11201,10 +11192,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -11233,10 +11224,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -11256,7 +11247,7 @@
         <v>38280794</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -11265,10 +11256,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -11288,7 +11279,7 @@
         <v>38280794</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -11297,10 +11288,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -11329,10 +11320,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -11352,7 +11343,7 @@
         <v>6182371</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -11361,10 +11352,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -11384,7 +11375,7 @@
         <v>6182371</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -11393,10 +11384,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -11425,10 +11416,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -11448,7 +11439,7 @@
         <v>32717893.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -11457,10 +11448,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -11480,7 +11471,7 @@
         <v>32717893.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -11489,10 +11480,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -11521,10 +11512,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -11544,7 +11535,7 @@
         <v>28401947</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -11553,10 +11544,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -11576,7 +11567,7 @@
         <v>28401947</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -11585,10 +11576,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -11608,7 +11599,7 @@
         <v>39462488</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -11617,10 +11608,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11640,7 +11631,7 @@
         <v>39462488</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -11649,10 +11640,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11681,10 +11672,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11713,10 +11704,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11745,10 +11736,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11768,7 +11759,7 @@
         <v>38274869</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -11777,10 +11768,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11800,7 +11791,7 @@
         <v>38274869</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -11809,10 +11800,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11832,7 +11823,7 @@
         <v>43839811.5</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -11841,10 +11832,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11864,7 +11855,7 @@
         <v>43839811.5</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -11873,10 +11864,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11905,10 +11896,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11928,7 +11919,7 @@
         <v>22843999</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11937,10 +11928,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11960,7 +11951,7 @@
         <v>22843999</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11969,10 +11960,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11992,7 +11983,7 @@
         <v>11744968</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -12001,10 +11992,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -12024,7 +12015,7 @@
         <v>11744968</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -12033,10 +12024,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -12065,10 +12056,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -12097,10 +12088,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -12120,7 +12111,7 @@
         <v>28396005</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -12129,10 +12120,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -12152,7 +12143,7 @@
         <v>28396005</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -12161,10 +12152,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -12184,7 +12175,7 @@
         <v>33942545.5</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -12193,10 +12184,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -12216,7 +12207,7 @@
         <v>33942545.5</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -12225,10 +12216,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -12257,10 +12248,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -12280,7 +12271,7 @@
         <v>5482184.5</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -12289,10 +12280,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -12312,7 +12303,7 @@
         <v>5482184.5</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -12321,10 +12312,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -12344,7 +12335,7 @@
         <v>5496253</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -12353,10 +12344,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -12376,7 +12367,7 @@
         <v>5496253</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -12385,10 +12376,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -12417,10 +12408,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -12440,7 +12431,7 @@
         <v>43828998</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -12449,10 +12440,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -12472,7 +12463,7 @@
         <v>43828998</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -12481,10 +12472,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -12513,10 +12504,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -12536,7 +12527,7 @@
         <v>11728330</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -12545,10 +12536,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -12568,7 +12559,7 @@
         <v>11728330</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -12577,10 +12568,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -12609,10 +12600,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -12632,7 +12623,7 @@
         <v>49383691.5</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -12641,10 +12632,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12664,7 +12655,7 @@
         <v>49383691.5</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -12673,10 +12664,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12696,7 +12687,7 @@
         <v>11749285.5</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -12705,10 +12696,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12728,7 +12719,7 @@
         <v>11749285.5</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12737,10 +12728,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12769,10 +12760,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12792,7 +12783,7 @@
         <v>6175416.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -12801,10 +12792,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12824,7 +12815,7 @@
         <v>6175416.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -12833,10 +12824,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12856,7 +12847,7 @@
         <v>17278757.5</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -12865,10 +12856,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12888,7 +12879,7 @@
         <v>17278757.5</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12897,10 +12888,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12920,7 +12911,7 @@
         <v>32715077.5</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12929,10 +12920,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12952,7 +12943,7 @@
         <v>32715077.5</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12961,10 +12952,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12993,10 +12984,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -13016,7 +13007,7 @@
         <v>38279529</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -13025,10 +13016,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -13048,7 +13039,7 @@
         <v>38279529</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -13057,10 +13048,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -13080,7 +13071,7 @@
         <v>49394176.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -13089,10 +13080,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -13112,7 +13103,7 @@
         <v>49394176.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -13121,10 +13112,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -13144,7 +13135,7 @@
         <v>22840187</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -13153,10 +13144,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -13176,7 +13167,7 @@
         <v>22840187</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -13185,10 +13176,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -13208,7 +13199,7 @@
         <v>22844513</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -13217,10 +13208,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -13240,7 +13231,7 @@
         <v>22844513</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -13249,10 +13240,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -13272,7 +13263,7 @@
         <v>11732097.5</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -13281,10 +13272,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -13304,7 +13295,7 @@
         <v>11732097.5</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -13313,10 +13304,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -13336,7 +13327,7 @@
         <v>32710777.5</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -13345,10 +13336,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -13368,7 +13359,7 @@
         <v>32710777.5</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -13377,10 +13368,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -13409,10 +13400,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -13432,7 +13423,7 @@
         <v>28384142</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -13441,10 +13432,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -13464,7 +13455,7 @@
         <v>28384142</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -13473,10 +13464,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -13496,7 +13487,7 @@
         <v>17277437</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -13505,10 +13496,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -13528,7 +13519,7 @@
         <v>17277437</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -13537,10 +13528,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -13560,7 +13551,7 @@
         <v>27152602.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -13569,10 +13560,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -13592,7 +13583,7 @@
         <v>27152602.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -13601,10 +13592,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -13633,10 +13624,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13656,7 +13647,7 @@
         <v>33945317</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -13665,10 +13656,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13688,7 +13679,7 @@
         <v>33945317</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -13697,10 +13688,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13729,10 +13720,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13752,7 +13743,7 @@
         <v>21605566.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -13761,10 +13752,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13784,7 +13775,7 @@
         <v>21605566.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -13793,10 +13784,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13816,7 +13807,7 @@
         <v>32715941.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -13825,10 +13816,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13848,7 +13839,7 @@
         <v>32715941.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -13857,10 +13848,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13880,7 +13871,7 @@
         <v>39462429.5</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -13889,10 +13880,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13912,7 +13903,7 @@
         <v>39462429.5</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13921,10 +13912,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13953,10 +13944,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13976,7 +13967,7 @@
         <v>16060853.5</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13985,10 +13976,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -14008,7 +13999,7 @@
         <v>16060853.5</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -14017,10 +14008,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -14040,7 +14031,7 @@
         <v>27152987.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -14049,10 +14040,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -14072,7 +14063,7 @@
         <v>27152987.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -14081,10 +14072,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -14116,22 +14107,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -14359,21 +14350,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>198</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14387,7 +14378,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -14401,7 +14392,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -14415,7 +14406,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -14429,7 +14420,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -14443,7 +14434,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -14457,7 +14448,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -14471,7 +14462,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -14485,7 +14476,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -14499,7 +14490,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -14513,7 +14504,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -14527,7 +14518,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -14541,7 +14532,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -14555,7 +14546,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -14569,7 +14560,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -14583,7 +14574,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -14597,7 +14588,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -14611,7 +14602,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -14625,7 +14616,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -14639,7 +14630,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -14653,7 +14644,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -14683,7 +14674,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -14713,7 +14704,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -14739,27 +14730,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C3" s="29">
         <v>40426848</v>
@@ -14768,20 +14759,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8090201.6000000006</v>
+        <v>8089496.6000000006</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32336646.399999999</v>
+        <v>32337351.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C4" s="29">
         <v>53896550.399999999</v>
@@ -14790,20 +14781,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10786617.08</v>
+        <v>10784561.08</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43109933.32</v>
+        <v>43111989.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C5" s="29">
         <v>67366252.799999997</v>
@@ -14812,20 +14803,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13478847.560000001</v>
+        <v>13497823.560000001</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53887405.239999995</v>
+        <v>53868429.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C6" s="29">
         <v>94305657.600000009</v>
@@ -14834,20 +14825,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18865067.520000003</v>
+        <v>18865385.520000003</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75440590.080000013</v>
+        <v>75440272.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C7" s="29">
         <v>107760576</v>
@@ -14856,20 +14847,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21552598.200000003</v>
+        <v>21565320.200000003</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86207977.799999997</v>
+        <v>86195255.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C8" s="29">
         <v>121082438.40000001</v>
@@ -14878,20 +14869,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24222117.680000003</v>
+        <v>24230905.680000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96860320.719999999</v>
+        <v>96851532.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C9" s="29">
         <v>146543443.19999999</v>
@@ -14900,20 +14891,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29331855.640000001</v>
+        <v>29323204.640000001</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117211587.55999999</v>
+        <v>117220238.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C10" s="29">
         <v>16608345.6</v>
@@ -14922,20 +14913,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3341451.12</v>
+        <v>3326820.12</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13266894.48</v>
+        <v>13281525.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C11" s="29">
         <v>33034848</v>
@@ -14944,20 +14935,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6620116.6000000006</v>
+        <v>6631734.6000000006</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26414731.399999999</v>
+        <v>26403113.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1">
       <c r="B12" s="28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C12" s="29">
         <v>49461350.399999999</v>
@@ -14966,20 +14957,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9904748.0800000001</v>
+        <v>9902305.0800000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39556602.32</v>
+        <v>39559045.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C13" s="29">
         <v>65887852.799999997</v>
@@ -14988,20 +14979,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13200331.560000001</v>
+        <v>13185312.560000001</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52687521.239999995</v>
+        <v>52702540.239999995</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C14" s="29">
         <v>82314355.199999988</v>
@@ -15010,20 +15001,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16482651.039999999</v>
+        <v>16471585.039999999</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65831704.159999989</v>
+        <v>65842770.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C15" s="29">
         <v>98740857.600000009</v>
@@ -15032,20 +15023,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19750436.520000003</v>
+        <v>19755495.520000003</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78990421.080000013</v>
+        <v>78985362.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1">
       <c r="B16" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C16" s="29">
         <v>115152576</v>
@@ -15054,20 +15045,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23031978.200000003</v>
+        <v>23032913.200000003</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92120597.799999997</v>
+        <v>92119662.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C17" s="29">
         <v>131431238.40000001</v>
@@ -15076,20 +15067,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26296954.680000003</v>
+        <v>26292040.680000003</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105134283.72</v>
+        <v>105139197.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C18" s="29">
         <v>146379340.80000001</v>
@@ -15098,20 +15089,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29300521.160000004</v>
+        <v>29299046.160000004</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117078819.64000002</v>
+        <v>117080294.64000002</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C19" s="29">
         <v>14965843.199999999</v>
@@ -15120,20 +15111,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>2996663.64</v>
+        <v>3013102.64</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11969179.559999999</v>
+        <v>11952740.559999999</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C20" s="29">
         <v>31392345.600000001</v>
@@ -15142,20 +15133,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6300337.120000001</v>
+        <v>6299705.120000001</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25092008.48</v>
+        <v>25092640.48</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C21" s="29">
         <v>47818848</v>
@@ -15164,20 +15155,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9583845.5999999996</v>
+        <v>9587488.5999999996</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38235002.399999999</v>
+        <v>38231359.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C22" s="29">
         <v>64245350.399999999</v>
@@ -15186,20 +15177,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12854325.08</v>
+        <v>12850470.08</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51391025.32</v>
+        <v>51394880.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C23" s="29">
         <v>80671852.799999997</v>
@@ -15208,20 +15199,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16156295.560000001</v>
+        <v>16145627.560000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64515557.239999995</v>
+        <v>64526225.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C24" s="29">
         <v>97098355.199999988</v>
@@ -15230,20 +15221,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19421399.039999999</v>
+        <v>19444565.039999999</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77676956.159999996</v>
+        <v>77653790.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C25" s="29">
         <v>113524857.59999999</v>
@@ -15252,20 +15243,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22713221.52</v>
+        <v>22725220.52</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90811636.079999998</v>
+        <v>90799637.079999998</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C26" s="29">
         <v>129936576</v>
@@ -15274,20 +15265,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26000479.200000003</v>
+        <v>26006878.200000003</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103936096.8</v>
+        <v>103929697.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C27" s="29">
         <v>146215238.40000001</v>
@@ -15296,20 +15287,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29261018.680000003</v>
+        <v>29252470.680000003</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116954219.72</v>
+        <v>116962767.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C28" s="29">
         <v>28107340.800000001</v>
@@ -15318,20 +15309,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5627832.1600000001</v>
+        <v>5622666.1600000001</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22479508.640000001</v>
+        <v>22484674.640000001</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C29" s="29">
         <v>44533843.200000003</v>
@@ -15340,20 +15331,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8916168.6400000006</v>
+        <v>8922897.6400000006</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35617674.560000002</v>
+        <v>35610945.560000002</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C30" s="29">
         <v>60960345.599999987</v>
@@ -15362,20 +15353,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12192781.119999997</v>
+        <v>12209391.119999997</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48767564.479999989</v>
+        <v>48750954.479999989</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C31" s="29">
         <v>77386848</v>
@@ -15384,20 +15375,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15487434.600000001</v>
+        <v>15486063.600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61899413.399999999</v>
+        <v>61900784.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C32" s="29">
         <v>93813350.399999991</v>
@@ -15406,20 +15397,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18764672.079999998</v>
+        <v>18784178.079999998</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75048678.319999993</v>
+        <v>75029172.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C33" s="29">
         <v>110239852.8</v>
@@ -15428,20 +15419,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22071394.560000002</v>
+        <v>22055192.560000002</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88168458.239999995</v>
+        <v>88184660.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C34" s="29">
         <v>126666355.2</v>
@@ -15450,20 +15441,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25348440.040000003</v>
+        <v>25334720.040000003</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101317915.16</v>
+        <v>101331635.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C35" s="29">
         <v>143092857.59999999</v>
@@ -15472,20 +15463,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28638829.52</v>
+        <v>28642043.52</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114454028.08</v>
+        <v>114450814.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C36" s="29">
         <v>26448576</v>
@@ -15494,20 +15485,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5308324.2</v>
+        <v>5311139.2</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21140251.800000001</v>
+        <v>21137436.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C37" s="29">
         <v>42727238.399999999</v>
@@ -15516,20 +15507,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8555717.6799999997</v>
+        <v>8554160.6799999997</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34171520.719999999</v>
+        <v>34173077.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C38" s="29">
         <v>57675340.799999997</v>
@@ -15538,20 +15529,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11549743.16</v>
+        <v>11540782.16</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46125597.640000001</v>
+        <v>46134558.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C39" s="29">
         <v>74101843.200000003</v>
@@ -15560,15 +15551,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14840388.640000001</v>
+        <v>14843401.640000001</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59261454.560000002</v>
+        <v>59258441.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -15604,10 +15595,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -15662,7 +15653,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="31" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C40" s="31">
         <v>6</v>
@@ -15680,7 +15671,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C41" s="31">
         <v>7</v>

--- a/Sample_Bank_Data/DEC 2023.xlsx
+++ b/Sample_Bank_Data/DEC 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63456AE4-EFEE-4ABA-8E00-FD272C189816}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77898B2D-2CA7-4316-BC03-68E346E89CFC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="303">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -4189,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="P1:Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9336,7 +9336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
@@ -14714,12 +14714,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -14728,7 +14731,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="25" t="s">
         <v>222</v>
       </c>
@@ -14748,7 +14754,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="28" t="s">
         <v>228</v>
       </c>
@@ -14763,14 +14772,17 @@
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8089496.6000000006</v>
+        <v>8100790.6000000006</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32337351.399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>32326057.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="28" t="s">
         <v>230</v>
       </c>
@@ -14785,14 +14797,17 @@
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10784561.08</v>
+        <v>10779858.08</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43111989.32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>43116692.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="28" t="s">
         <v>231</v>
       </c>
@@ -14807,14 +14822,17 @@
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13497823.560000001</v>
+        <v>13498154.560000001</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53868429.239999995</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>53868098.239999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="28" t="s">
         <v>232</v>
       </c>
@@ -14829,14 +14847,17 @@
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18865385.520000003</v>
+        <v>18869084.520000003</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75440272.080000013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>75436573.080000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="28" t="s">
         <v>233</v>
       </c>
@@ -14851,14 +14872,17 @@
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21565320.200000003</v>
+        <v>21555374.200000003</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86195255.799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>86205201.799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="28" t="s">
         <v>234</v>
       </c>
@@ -14873,14 +14897,17 @@
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24230905.680000003</v>
+        <v>24224764.680000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96851532.719999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>96857673.719999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="28" t="s">
         <v>235</v>
       </c>
@@ -14895,14 +14922,17 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29323204.640000001</v>
+        <v>29309396.640000001</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117220238.55999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>117234046.55999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="28" t="s">
         <v>236</v>
       </c>
@@ -14917,14 +14947,17 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3326820.12</v>
+        <v>3344986.12</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13281525.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>13263359.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="28" t="s">
         <v>237</v>
       </c>
@@ -14939,14 +14972,17 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6631734.6000000006</v>
+        <v>6626922.6000000006</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26403113.399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+        <v>26407925.399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="28" t="s">
         <v>238</v>
       </c>
@@ -14961,14 +14997,17 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9902305.0800000001</v>
+        <v>9910545.0800000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39559045.32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>39550805.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="28" t="s">
         <v>239</v>
       </c>
@@ -14983,14 +15022,17 @@
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13185312.560000001</v>
+        <v>13185021.560000001</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52702540.239999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>52702831.239999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="28" t="s">
         <v>240</v>
       </c>
@@ -15005,14 +15047,17 @@
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16471585.039999999</v>
+        <v>16478167.039999999</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65842770.159999989</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>65836188.159999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="28" t="s">
         <v>241</v>
       </c>
@@ -15027,14 +15072,17 @@
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19755495.520000003</v>
+        <v>19753825.520000003</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78985362.080000013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+        <v>78987032.080000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="28" t="s">
         <v>243</v>
       </c>
@@ -15049,14 +15097,17 @@
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23032913.200000003</v>
+        <v>23048893.200000003</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92119662.799999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>92103682.799999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="28" t="s">
         <v>244</v>
       </c>
@@ -15071,14 +15122,17 @@
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26292040.680000003</v>
+        <v>26294444.680000003</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105139197.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+        <v>105136793.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="28" t="s">
         <v>245</v>
       </c>
@@ -15093,14 +15147,17 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29299046.160000004</v>
+        <v>29292548.160000004</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117080294.64000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>117086792.64000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="28" t="s">
         <v>246</v>
       </c>
@@ -15115,14 +15172,17 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3013102.64</v>
+        <v>2994878.64</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11952740.559999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>11970964.559999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="28" t="s">
         <v>247</v>
       </c>
@@ -15137,14 +15197,17 @@
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6299705.120000001</v>
+        <v>6302883.120000001</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25092640.48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>25089462.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="28" t="s">
         <v>248</v>
       </c>
@@ -15159,14 +15222,17 @@
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9587488.5999999996</v>
+        <v>9568551.5999999996</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38231359.399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+        <v>38250296.399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="28" t="s">
         <v>249</v>
       </c>
@@ -15181,14 +15247,17 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12850470.08</v>
+        <v>12851485.08</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51394880.32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>51393865.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="28" t="s">
         <v>250</v>
       </c>
@@ -15203,14 +15272,17 @@
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16145627.560000001</v>
+        <v>16144392.560000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64526225.239999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>64527460.239999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="28" t="s">
         <v>251</v>
       </c>
@@ -15225,14 +15297,17 @@
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19444565.039999999</v>
+        <v>19424512.039999999</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77653790.159999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>77673843.159999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="28" t="s">
         <v>252</v>
       </c>
@@ -15247,14 +15322,17 @@
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22725220.52</v>
+        <v>22712565.52</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90799637.079999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>90812292.079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="28" t="s">
         <v>253</v>
       </c>
@@ -15269,14 +15347,17 @@
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26006878.200000003</v>
+        <v>26000428.200000003</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103929697.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>103936147.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="28" t="s">
         <v>254</v>
       </c>
@@ -15291,14 +15372,17 @@
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29252470.680000003</v>
+        <v>29264040.680000003</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116962767.72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>116951197.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="28" t="s">
         <v>255</v>
       </c>
@@ -15313,14 +15397,17 @@
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5622666.1600000001</v>
+        <v>5641455.1600000001</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22484674.640000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>22465885.640000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="28" t="s">
         <v>256</v>
       </c>
@@ -15335,14 +15422,17 @@
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8922897.6400000006</v>
+        <v>8914586.6400000006</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35610945.560000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>35619256.560000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="28" t="s">
         <v>257</v>
       </c>
@@ -15357,14 +15447,17 @@
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12209391.119999997</v>
+        <v>12207463.119999997</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48750954.479999989</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>48752882.479999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="28" t="s">
         <v>258</v>
       </c>
@@ -15379,14 +15472,17 @@
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15486063.600000001</v>
+        <v>15495974.600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61900784.399999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>61890873.399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="28" t="s">
         <v>259</v>
       </c>
@@ -15401,14 +15497,17 @@
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18784178.079999998</v>
+        <v>18776299.079999998</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75029172.319999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>75037051.319999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="28" t="s">
         <v>260</v>
       </c>
@@ -15423,14 +15522,17 @@
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22055192.560000002</v>
+        <v>22055791.560000002</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88184660.239999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>88184061.239999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="28" t="s">
         <v>261</v>
       </c>
@@ -15445,14 +15547,17 @@
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25334720.040000003</v>
+        <v>25351434.040000003</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101331635.16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>101314921.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="28" t="s">
         <v>262</v>
       </c>
@@ -15467,14 +15572,17 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28642043.52</v>
+        <v>28637902.52</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114450814.08</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>114454955.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="28" t="s">
         <v>263</v>
       </c>
@@ -15489,14 +15597,17 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5311139.2</v>
+        <v>5309901.2</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21137436.800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>21138674.800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="28" t="s">
         <v>264</v>
       </c>
@@ -15511,14 +15622,17 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8554160.6799999997</v>
+        <v>8549577.6799999997</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34173077.719999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>34177660.719999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="28" t="s">
         <v>265</v>
       </c>
@@ -15533,14 +15647,17 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11540782.16</v>
+        <v>11539750.16</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46134558.640000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>46135590.640000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="28" t="s">
         <v>266</v>
       </c>
@@ -15555,11 +15672,11 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14843401.640000001</v>
+        <v>14838672.640000001</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59258441.560000002</v>
+        <v>59263170.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -15569,10 +15686,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:F41"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15584,7 +15701,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
@@ -15601,7 +15721,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="31" t="s">
         <v>48</v>
       </c>
@@ -15617,7 +15740,10 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="31" t="s">
         <v>51</v>
       </c>
@@ -15635,7 +15761,10 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="31" t="s">
         <v>52</v>
       </c>

--- a/Sample_Bank_Data/DEC 2023.xlsx
+++ b/Sample_Bank_Data/DEC 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77898B2D-2CA7-4316-BC03-68E346E89CFC}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E34D312-AA17-43FB-80B1-C89D83B3C731}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -14772,11 +14772,11 @@
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8100790.6000000006</v>
+        <v>8098124.6000000006</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32326057.399999999</v>
+        <v>32328723.399999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -14797,11 +14797,11 @@
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10779858.08</v>
+        <v>10800747.08</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43116692.32</v>
+        <v>43095803.32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
@@ -14822,11 +14822,11 @@
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13498154.560000001</v>
+        <v>13486734.560000001</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53868098.239999995</v>
+        <v>53879518.239999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14847,11 +14847,11 @@
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18869084.520000003</v>
+        <v>18869073.520000003</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75436573.080000013</v>
+        <v>75436584.080000013</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -14872,11 +14872,11 @@
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21555374.200000003</v>
+        <v>21571966.200000003</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86205201.799999997</v>
+        <v>86188609.799999997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14897,11 +14897,11 @@
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24224764.680000003</v>
+        <v>24224995.680000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96857673.719999999</v>
+        <v>96857442.719999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -14922,11 +14922,11 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29309396.640000001</v>
+        <v>29309519.640000001</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117234046.55999999</v>
+        <v>117233923.55999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -14947,11 +14947,11 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3344986.12</v>
+        <v>3334025.12</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13263359.48</v>
+        <v>13274320.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -14972,11 +14972,11 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6626922.6000000006</v>
+        <v>6630024.6000000006</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26407925.399999999</v>
+        <v>26404823.399999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
@@ -14997,11 +14997,11 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9910545.0800000001</v>
+        <v>9893709.0800000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39550805.32</v>
+        <v>39567641.32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -15022,11 +15022,11 @@
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13185021.560000001</v>
+        <v>13189751.560000001</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52702831.239999995</v>
+        <v>52698101.239999995</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -15047,11 +15047,11 @@
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16478167.039999999</v>
+        <v>16471722.039999999</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65836188.159999989</v>
+        <v>65842633.159999989</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -15072,11 +15072,11 @@
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19753825.520000003</v>
+        <v>19767391.520000003</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78987032.080000013</v>
+        <v>78973466.080000013</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
@@ -15097,11 +15097,11 @@
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23048893.200000003</v>
+        <v>23035911.200000003</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92103682.799999997</v>
+        <v>92116664.799999997</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -15122,11 +15122,11 @@
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26294444.680000003</v>
+        <v>26307299.680000003</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105136793.72</v>
+        <v>105123938.72</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
@@ -15147,11 +15147,11 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29292548.160000004</v>
+        <v>29285742.160000004</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117086792.64000002</v>
+        <v>117093598.64000002</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -15172,11 +15172,11 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>2994878.64</v>
+        <v>3013787.64</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11970964.559999999</v>
+        <v>11952055.559999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -15197,11 +15197,11 @@
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6302883.120000001</v>
+        <v>6289202.120000001</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25089462.48</v>
+        <v>25103143.48</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -15222,11 +15222,11 @@
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9568551.5999999996</v>
+        <v>9569896.5999999996</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38250296.399999999</v>
+        <v>38248951.399999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
@@ -15247,11 +15247,11 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12851485.08</v>
+        <v>12853260.08</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51393865.32</v>
+        <v>51392090.32</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -15272,11 +15272,11 @@
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16144392.560000001</v>
+        <v>16156095.560000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64527460.239999995</v>
+        <v>64515757.239999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
@@ -15297,11 +15297,11 @@
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19424512.039999999</v>
+        <v>19443697.039999999</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77673843.159999996</v>
+        <v>77654658.159999996</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -15322,11 +15322,11 @@
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22712565.52</v>
+        <v>22728300.52</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90812292.079999998</v>
+        <v>90796557.079999998</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -15347,11 +15347,11 @@
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26000428.200000003</v>
+        <v>26009784.200000003</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103936147.8</v>
+        <v>103926791.8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -15372,11 +15372,11 @@
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29264040.680000003</v>
+        <v>29265166.680000003</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116951197.72</v>
+        <v>116950071.72</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -15397,11 +15397,11 @@
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5641455.1600000001</v>
+        <v>5632552.1600000001</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22465885.640000001</v>
+        <v>22474788.640000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -15422,11 +15422,11 @@
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8914586.6400000006</v>
+        <v>8922177.6400000006</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35619256.560000002</v>
+        <v>35611665.560000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -15447,11 +15447,11 @@
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12207463.119999997</v>
+        <v>12197600.119999997</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48752882.479999989</v>
+        <v>48762745.479999989</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -15472,11 +15472,11 @@
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15495974.600000001</v>
+        <v>15480626.600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61890873.399999999</v>
+        <v>61906221.399999999</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -15497,11 +15497,11 @@
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18776299.079999998</v>
+        <v>18779133.079999998</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75037051.319999993</v>
+        <v>75034217.319999993</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -15522,11 +15522,11 @@
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22055791.560000002</v>
+        <v>22064241.560000002</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88184061.239999995</v>
+        <v>88175611.239999995</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -15547,11 +15547,11 @@
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25351434.040000003</v>
+        <v>25357893.040000003</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101314921.16</v>
+        <v>101308462.16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -15572,11 +15572,11 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28637902.52</v>
+        <v>28643091.52</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114454955.08</v>
+        <v>114449766.08</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
@@ -15597,11 +15597,11 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5309901.2</v>
+        <v>5294959.2</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21138674.800000001</v>
+        <v>21153616.800000001</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -15622,11 +15622,11 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8549577.6799999997</v>
+        <v>8549950.6799999997</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34177660.719999999</v>
+        <v>34177287.719999999</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -15647,11 +15647,11 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11539750.16</v>
+        <v>11537126.16</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46135590.640000001</v>
+        <v>46138214.640000001</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -15672,11 +15672,11 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14838672.640000001</v>
+        <v>14822925.640000001</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59263170.560000002</v>
+        <v>59278917.560000002</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/DEC 2023.xlsx
+++ b/Sample_Bank_Data/DEC 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10069845-3A5C-480E-8C34-E2AA3819CE48}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{18AE2393-E2C9-48B3-9B09-475030DA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E34D312-AA17-43FB-80B1-C89D83B3C731}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="303">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>75%</t>
   </si>
   <si>
@@ -520,370 +511,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1707,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B3:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1954,13 +1690,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1968,7 +1704,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -1980,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2005,10 +1741,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2029,10 +1765,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2053,10 +1789,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H5" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2077,10 +1813,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="H6" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2102,10 +1838,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="H7" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2127,10 +1863,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H8" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2152,10 +1888,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H9" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2177,10 +1913,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H10" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2202,10 +1938,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="H11" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2227,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2249,10 +1985,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H13" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2274,7 +2010,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2297,7 +2033,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2319,7 +2055,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2341,10 +2077,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H17" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2366,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2388,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2410,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2433,7 +2169,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2455,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2477,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2499,7 +2235,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2521,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2543,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2565,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2587,10 +2323,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H28" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2612,10 +2348,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H29" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2637,7 +2373,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2659,7 +2395,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2682,7 +2418,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2704,10 +2440,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H33" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2729,10 +2465,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H34" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2754,10 +2490,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H35" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2779,10 +2515,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H36" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2804,7 +2540,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2826,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2848,7 +2584,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2870,10 +2606,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H40" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2895,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="H41" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2920,7 +2656,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2942,7 +2678,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2964,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2986,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3008,7 +2744,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3030,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3052,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3074,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3096,7 +2832,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3118,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3138,30 +2874,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -3172,13 +2908,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -3189,13 +2925,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -3206,13 +2942,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -3223,13 +2959,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -3240,13 +2976,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -3257,13 +2993,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3274,13 +3010,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -3291,13 +3027,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -3308,13 +3044,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -3325,13 +3061,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -3342,13 +3078,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -3359,13 +3095,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -3376,13 +3112,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -3393,13 +3129,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -3410,13 +3146,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -3427,13 +3163,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -3444,13 +3180,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3461,13 +3197,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3478,13 +3214,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3495,7 +3231,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3506,13 +3242,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3520,10 +3256,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3531,7 +3267,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4453,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="P1:Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9600,8 +9336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9655,7 +9391,7 @@
         <v>6341624.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -9664,10 +9400,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -9687,7 +9423,7 @@
         <v>6341624.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -9696,10 +9432,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -9728,10 +9464,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -9751,7 +9487,7 @@
         <v>12477673.5</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -9760,10 +9496,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -9783,7 +9519,7 @@
         <v>12477673.5</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -9792,10 +9528,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -9815,7 +9551,7 @@
         <v>49389285</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -9824,10 +9560,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -9847,7 +9583,7 @@
         <v>49389285</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -9856,10 +9592,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -9888,10 +9624,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -9911,7 +9647,7 @@
         <v>49405622.5</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -9920,10 +9656,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -9943,7 +9679,7 @@
         <v>49405622.5</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -9952,10 +9688,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -9975,7 +9711,7 @@
         <v>11744737.5</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9984,10 +9720,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -10007,7 +9743,7 @@
         <v>11744737.5</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -10016,10 +9752,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -10039,7 +9775,7 @@
         <v>38283744</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -10048,10 +9784,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -10071,7 +9807,7 @@
         <v>38283744</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -10080,10 +9816,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -10112,10 +9848,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -10135,7 +9871,7 @@
         <v>28402008.5</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -10144,10 +9880,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -10167,7 +9903,7 @@
         <v>28402008.5</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -10176,10 +9912,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -10199,7 +9935,7 @@
         <v>43833249</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -10208,10 +9944,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -10231,7 +9967,7 @@
         <v>43833249</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -10240,10 +9976,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -10263,7 +9999,7 @@
         <v>27159930</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -10272,10 +10008,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -10295,7 +10031,7 @@
         <v>27159930</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -10304,10 +10040,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -10327,7 +10063,7 @@
         <v>11728047.5</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -10336,10 +10072,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -10359,7 +10095,7 @@
         <v>11728047.5</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -10368,10 +10104,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -10391,7 +10127,7 @@
         <v>33946121</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -10400,10 +10136,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -10423,7 +10159,7 @@
         <v>33946121</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -10432,10 +10168,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -10455,7 +10191,7 @@
         <v>16063572</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -10464,10 +10200,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -10487,7 +10223,7 @@
         <v>16063572</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -10496,10 +10232,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -10519,7 +10255,7 @@
         <v>38271676.5</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -10528,10 +10264,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -10551,7 +10287,7 @@
         <v>38271676.5</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -10560,10 +10296,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -10592,10 +10328,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -10615,7 +10351,7 @@
         <v>10548871</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -10624,10 +10360,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -10647,7 +10383,7 @@
         <v>10548871</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -10656,10 +10392,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -10679,7 +10415,7 @@
         <v>45073187.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -10688,10 +10424,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -10711,7 +10447,7 @@
         <v>45073187.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -10720,10 +10456,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -10752,10 +10488,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -10775,7 +10511,7 @@
         <v>49375271</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -10784,10 +10520,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -10807,7 +10543,7 @@
         <v>49375271</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -10816,10 +10552,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -10848,10 +10584,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -10871,7 +10607,7 @@
         <v>11738764.5</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -10880,10 +10616,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10903,7 +10639,7 @@
         <v>11738764.5</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -10912,10 +10648,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10935,7 +10671,7 @@
         <v>32719271</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -10944,10 +10680,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10967,7 +10703,7 @@
         <v>32719271</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10976,10 +10712,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -11008,10 +10744,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -11031,7 +10767,7 @@
         <v>39450152.5</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -11040,10 +10776,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -11063,7 +10799,7 @@
         <v>39450152.5</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -11072,10 +10808,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -11104,10 +10840,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -11127,7 +10863,7 @@
         <v>22847852.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -11136,10 +10872,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -11159,7 +10895,7 @@
         <v>22847852.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -11168,10 +10904,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -11200,10 +10936,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -11223,7 +10959,7 @@
         <v>6191094</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -11232,10 +10968,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -11255,7 +10991,7 @@
         <v>6191094</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -11264,10 +11000,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -11296,10 +11032,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>182</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -11319,7 +11055,7 @@
         <v>6192720</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -11328,10 +11064,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -11351,7 +11087,7 @@
         <v>6192720</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -11360,10 +11096,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -11392,10 +11128,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -11415,7 +11151,7 @@
         <v>17275005</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -11424,10 +11160,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -11447,7 +11183,7 @@
         <v>17275005</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -11456,10 +11192,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>187</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -11488,10 +11224,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -11511,7 +11247,7 @@
         <v>38280794</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -11520,10 +11256,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -11543,7 +11279,7 @@
         <v>38280794</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -11552,10 +11288,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>190</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -11584,10 +11320,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -11607,7 +11343,7 @@
         <v>6182371</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -11616,10 +11352,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -11639,7 +11375,7 @@
         <v>6182371</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -11648,10 +11384,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -11680,10 +11416,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -11703,7 +11439,7 @@
         <v>32717893.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -11712,10 +11448,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -11735,7 +11471,7 @@
         <v>32717893.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -11744,10 +11480,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -11776,10 +11512,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -11799,7 +11535,7 @@
         <v>28401947</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -11808,10 +11544,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -11831,7 +11567,7 @@
         <v>28401947</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -11840,10 +11576,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -11863,7 +11599,7 @@
         <v>39462488</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -11872,10 +11608,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11895,7 +11631,7 @@
         <v>39462488</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -11904,10 +11640,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11936,10 +11672,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11968,10 +11704,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -12000,10 +11736,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -12023,7 +11759,7 @@
         <v>38274869</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -12032,10 +11768,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -12055,7 +11791,7 @@
         <v>38274869</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -12064,10 +11800,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -12087,7 +11823,7 @@
         <v>43839811.5</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -12096,10 +11832,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -12119,7 +11855,7 @@
         <v>43839811.5</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -12128,10 +11864,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -12160,10 +11896,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -12183,7 +11919,7 @@
         <v>22843999</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -12192,10 +11928,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -12215,7 +11951,7 @@
         <v>22843999</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -12224,10 +11960,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -12247,7 +11983,7 @@
         <v>11744968</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -12256,10 +11992,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -12279,7 +12015,7 @@
         <v>11744968</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -12288,10 +12024,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -12320,10 +12056,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -12352,10 +12088,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -12375,7 +12111,7 @@
         <v>28396005</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -12384,10 +12120,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -12407,7 +12143,7 @@
         <v>28396005</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -12416,10 +12152,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -12439,7 +12175,7 @@
         <v>33942545.5</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -12448,10 +12184,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>218</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -12471,7 +12207,7 @@
         <v>33942545.5</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -12480,10 +12216,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -12512,10 +12248,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -12535,7 +12271,7 @@
         <v>5482184.5</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -12544,10 +12280,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -12567,7 +12303,7 @@
         <v>5482184.5</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -12576,10 +12312,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -12599,7 +12335,7 @@
         <v>5496253</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -12608,10 +12344,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -12631,7 +12367,7 @@
         <v>5496253</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -12640,10 +12376,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -12672,10 +12408,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -12695,7 +12431,7 @@
         <v>43828998</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -12704,10 +12440,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -12727,7 +12463,7 @@
         <v>43828998</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -12736,10 +12472,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -12768,10 +12504,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -12791,7 +12527,7 @@
         <v>11728330</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -12800,10 +12536,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -12823,7 +12559,7 @@
         <v>11728330</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -12832,10 +12568,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -12864,10 +12600,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>231</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -12887,7 +12623,7 @@
         <v>49383691.5</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -12896,10 +12632,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12919,7 +12655,7 @@
         <v>49383691.5</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -12928,10 +12664,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12951,7 +12687,7 @@
         <v>11749285.5</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -12960,10 +12696,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12983,7 +12719,7 @@
         <v>11749285.5</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12992,10 +12728,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -13024,10 +12760,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -13047,7 +12783,7 @@
         <v>6175416.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -13056,10 +12792,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -13079,7 +12815,7 @@
         <v>6175416.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -13088,10 +12824,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -13111,7 +12847,7 @@
         <v>17278757.5</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -13120,10 +12856,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -13143,7 +12879,7 @@
         <v>17278757.5</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -13152,10 +12888,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -13175,7 +12911,7 @@
         <v>32715077.5</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -13184,10 +12920,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -13207,7 +12943,7 @@
         <v>32715077.5</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -13216,10 +12952,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>242</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -13248,10 +12984,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -13271,7 +13007,7 @@
         <v>38279529</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -13280,10 +13016,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -13303,7 +13039,7 @@
         <v>38279529</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -13312,10 +13048,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -13335,7 +13071,7 @@
         <v>49394176.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -13344,10 +13080,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -13367,7 +13103,7 @@
         <v>49394176.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -13376,10 +13112,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -13399,7 +13135,7 @@
         <v>22840187</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -13408,10 +13144,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -13431,7 +13167,7 @@
         <v>22840187</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -13440,10 +13176,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>249</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -13463,7 +13199,7 @@
         <v>22844513</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -13472,10 +13208,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -13495,7 +13231,7 @@
         <v>22844513</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -13504,10 +13240,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -13527,7 +13263,7 @@
         <v>11732097.5</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -13536,10 +13272,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -13559,7 +13295,7 @@
         <v>11732097.5</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -13568,10 +13304,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -13591,7 +13327,7 @@
         <v>32710777.5</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -13600,10 +13336,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -13623,7 +13359,7 @@
         <v>32710777.5</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -13632,10 +13368,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -13664,10 +13400,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -13687,7 +13423,7 @@
         <v>28384142</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -13696,10 +13432,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -13719,7 +13455,7 @@
         <v>28384142</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -13728,10 +13464,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -13751,7 +13487,7 @@
         <v>17277437</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -13760,10 +13496,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -13783,7 +13519,7 @@
         <v>17277437</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -13792,10 +13528,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -13815,7 +13551,7 @@
         <v>27152602.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -13824,10 +13560,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -13847,7 +13583,7 @@
         <v>27152602.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -13856,10 +13592,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -13888,10 +13624,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13911,7 +13647,7 @@
         <v>33945317</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -13920,10 +13656,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13943,7 +13679,7 @@
         <v>33945317</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -13952,10 +13688,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13984,10 +13720,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -14007,7 +13743,7 @@
         <v>21605566.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -14016,10 +13752,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -14039,7 +13775,7 @@
         <v>21605566.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -14048,10 +13784,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -14071,7 +13807,7 @@
         <v>32715941.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -14080,10 +13816,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -14103,7 +13839,7 @@
         <v>32715941.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -14112,10 +13848,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -14135,7 +13871,7 @@
         <v>39462429.5</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -14144,10 +13880,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -14167,7 +13903,7 @@
         <v>39462429.5</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -14176,10 +13912,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -14208,10 +13944,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -14231,7 +13967,7 @@
         <v>16060853.5</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -14240,10 +13976,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -14263,7 +13999,7 @@
         <v>16060853.5</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -14272,10 +14008,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -14295,7 +14031,7 @@
         <v>27152987.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -14304,10 +14040,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>276</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -14327,7 +14063,7 @@
         <v>27152987.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -14336,10 +14072,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -14371,22 +14107,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -14614,21 +14350,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14642,7 +14378,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -14656,7 +14392,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -14670,7 +14406,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -14684,7 +14420,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -14698,7 +14434,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -14712,7 +14448,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -14726,7 +14462,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -14740,7 +14476,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -14754,7 +14490,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -14768,7 +14504,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -14782,7 +14518,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -14796,7 +14532,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -14810,7 +14546,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -14824,7 +14560,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -14838,7 +14574,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -14852,7 +14588,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -14866,7 +14602,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -14880,7 +14616,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -14894,7 +14630,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -14908,7 +14644,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -14938,7 +14674,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -14968,7 +14704,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -14978,12 +14714,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -14992,29 +14731,35 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="25" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="28" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C3" s="29">
         <v>40426848</v>
@@ -15023,20 +14768,23 @@
         <v>2023</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8096175.6000000006</v>
+        <v>8098124.6000000006</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32330672.399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>32328723.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="28" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C4" s="29">
         <v>53896550.399999999</v>
@@ -15045,20 +14793,23 @@
         <v>2022</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10789730.08</v>
+        <v>10800747.08</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43106820.32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>43095803.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="28" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C5" s="29">
         <v>67366252.799999997</v>
@@ -15067,20 +14818,23 @@
         <v>2019</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13480996.560000001</v>
+        <v>13486734.560000001</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53885256.239999995</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>53879518.239999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="28" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C6" s="29">
         <v>94305657.600000009</v>
@@ -15089,20 +14843,23 @@
         <v>2023</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18865776.520000003</v>
+        <v>18869073.520000003</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75439881.080000013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>75436584.080000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="28" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C7" s="29">
         <v>107760576</v>
@@ -15111,20 +14868,23 @@
         <v>2022</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21558465.200000003</v>
+        <v>21571966.200000003</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86202110.799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>86188609.799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="28" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C8" s="29">
         <v>121082438.40000001</v>
@@ -15133,20 +14893,23 @@
         <v>2019</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24222202.680000003</v>
+        <v>24224995.680000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96860235.719999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>96857442.719999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="28" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C9" s="29">
         <v>146543443.19999999</v>
@@ -15155,20 +14918,23 @@
         <v>2023</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29318552.640000001</v>
+        <v>29309519.640000001</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117224890.55999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>117233923.55999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="28" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="C10" s="29">
         <v>16608345.6</v>
@@ -15177,20 +14943,23 @@
         <v>2022</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3342514.12</v>
+        <v>3334025.12</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13265831.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>13274320.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="28" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="C11" s="29">
         <v>33034848</v>
@@ -15199,20 +14968,23 @@
         <v>2019</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6609257.6000000006</v>
+        <v>6630024.6000000006</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26425590.399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+        <v>26404823.399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="28" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C12" s="29">
         <v>49461350.399999999</v>
@@ -15221,20 +14993,23 @@
         <v>2020</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9915055.0800000001</v>
+        <v>9893709.0800000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39546295.32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>39567641.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="28" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="C13" s="29">
         <v>65887852.799999997</v>
@@ -15243,20 +15018,23 @@
         <v>2020</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13197750.560000001</v>
+        <v>13189751.560000001</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52690102.239999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>52698101.239999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="28" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="C14" s="29">
         <v>82314355.199999988</v>
@@ -15265,20 +15043,23 @@
         <v>2020</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16478097.039999999</v>
+        <v>16471722.039999999</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65836258.159999989</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>65842633.159999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="28" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="C15" s="29">
         <v>98740857.600000009</v>
@@ -15287,20 +15068,23 @@
         <v>2020</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19757388.520000003</v>
+        <v>19767391.520000003</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78983469.080000013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+        <v>78973466.080000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="28" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="C16" s="29">
         <v>115152576</v>
@@ -15309,20 +15093,23 @@
         <v>2020</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23053120.200000003</v>
+        <v>23035911.200000003</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92099455.799999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>92116664.799999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="28" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="C17" s="29">
         <v>131431238.40000001</v>
@@ -15331,20 +15118,23 @@
         <v>2020</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26290858.680000003</v>
+        <v>26307299.680000003</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105140379.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+        <v>105123938.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="28" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="C18" s="29">
         <v>146379340.80000001</v>
@@ -15353,20 +15143,23 @@
         <v>2017</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29290610.160000004</v>
+        <v>29285742.160000004</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117088730.64000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>117093598.64000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="28" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="C19" s="29">
         <v>14965843.199999999</v>
@@ -15375,20 +15168,23 @@
         <v>2017</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3003947.64</v>
+        <v>3013787.64</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11961895.559999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>11952055.559999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="28" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="C20" s="29">
         <v>31392345.600000001</v>
@@ -15397,20 +15193,23 @@
         <v>2017</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6299844.120000001</v>
+        <v>6289202.120000001</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25092501.48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>25103143.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="28" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="C21" s="29">
         <v>47818848</v>
@@ -15419,20 +15218,23 @@
         <v>2017</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9565156.5999999996</v>
+        <v>9569896.5999999996</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38253691.399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+        <v>38248951.399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="28" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="C22" s="29">
         <v>64245350.399999999</v>
@@ -15441,20 +15243,23 @@
         <v>2017</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12858933.08</v>
+        <v>12853260.08</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51386417.32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>51392090.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="28" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="C23" s="29">
         <v>80671852.799999997</v>
@@ -15463,20 +15268,23 @@
         <v>2017</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16144825.560000001</v>
+        <v>16156095.560000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64527027.239999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>64515757.239999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="28" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C24" s="29">
         <v>97098355.199999988</v>
@@ -15485,20 +15293,23 @@
         <v>2017</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19441846.039999999</v>
+        <v>19443697.039999999</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77656509.159999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>77654658.159999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="28" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="C25" s="29">
         <v>113524857.59999999</v>
@@ -15507,20 +15318,23 @@
         <v>2015</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22728324.52</v>
+        <v>22728300.52</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90796533.079999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>90796557.079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="28" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="C26" s="29">
         <v>129936576</v>
@@ -15529,20 +15343,23 @@
         <v>2015</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26001536.200000003</v>
+        <v>26009784.200000003</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103935039.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>103926791.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="28" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="C27" s="29">
         <v>146215238.40000001</v>
@@ -15551,20 +15368,23 @@
         <v>2015</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29250041.680000003</v>
+        <v>29265166.680000003</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116965196.72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>116950071.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="28" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="C28" s="29">
         <v>28107340.800000001</v>
@@ -15573,20 +15393,23 @@
         <v>2015</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5622229.1600000001</v>
+        <v>5632552.1600000001</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22485111.640000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>22474788.640000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="28" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="C29" s="29">
         <v>44533843.200000003</v>
@@ -15595,20 +15418,23 @@
         <v>2015</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8921913.6400000006</v>
+        <v>8922177.6400000006</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35611929.560000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>35611665.560000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="28" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="C30" s="29">
         <v>60960345.599999987</v>
@@ -15617,20 +15443,23 @@
         <v>2015</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12210974.119999997</v>
+        <v>12197600.119999997</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48749371.479999989</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>48762745.479999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="28" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="C31" s="29">
         <v>77386848</v>
@@ -15639,20 +15468,23 @@
         <v>2015</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15500296.600000001</v>
+        <v>15480626.600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61886551.399999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>61906221.399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="28" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="C32" s="29">
         <v>93813350.399999991</v>
@@ -15661,20 +15493,23 @@
         <v>2015</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18771043.079999998</v>
+        <v>18779133.079999998</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75042307.319999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>75034217.319999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="28" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="C33" s="29">
         <v>110239852.8</v>
@@ -15683,20 +15518,23 @@
         <v>2015</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22064623.560000002</v>
+        <v>22064241.560000002</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88175229.239999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>88175611.239999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="28" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="C34" s="29">
         <v>126666355.2</v>
@@ -15705,20 +15543,23 @@
         <v>2015</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25341997.040000003</v>
+        <v>25357893.040000003</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101324358.16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>101308462.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="28" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="C35" s="29">
         <v>143092857.59999999</v>
@@ -15727,20 +15568,23 @@
         <v>2015</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28643494.52</v>
+        <v>28643091.52</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114449363.08</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>114449766.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="28" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="C36" s="29">
         <v>26448576</v>
@@ -15749,20 +15593,23 @@
         <v>2015</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5307018.2</v>
+        <v>5294959.2</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21141557.800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>21153616.800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="28" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="C37" s="29">
         <v>42727238.399999999</v>
@@ -15771,20 +15618,23 @@
         <v>2015</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8566986.6799999997</v>
+        <v>8549950.6799999997</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34160251.719999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>34177287.719999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="28" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="C38" s="29">
         <v>57675340.799999997</v>
@@ -15793,20 +15643,23 @@
         <v>2015</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11535817.16</v>
+        <v>11537126.16</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46139523.640000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>46138214.640000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="28" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="C39" s="29">
         <v>74101843.200000003</v>
@@ -15815,15 +15668,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14843093.640000001</v>
+        <v>14822925.640000001</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59258749.560000002</v>
+        <v>59278917.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -15833,10 +15686,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:F41"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15848,7 +15701,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
@@ -15859,13 +15715,16 @@
         <v>94</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="31" t="s">
         <v>48</v>
       </c>
@@ -15881,7 +15740,10 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="31" t="s">
         <v>51</v>
       </c>
@@ -15899,7 +15761,10 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="31" t="s">
         <v>52</v>
       </c>
@@ -15917,7 +15782,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="31" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="C40" s="31">
         <v>6</v>
@@ -15935,7 +15800,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="31" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="C41" s="31">
         <v>7</v>
